--- a/pokemonData.xlsx
+++ b/pokemonData.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="833">
   <si>
-    <t>#</t>
+    <t>PokeDex #</t>
   </si>
   <si>
     <t>Name</t>
@@ -2520,7 +2520,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2531,6 +2531,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2564,13 +2570,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2943,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>9</v>
       </c>
